--- a/i_codebooks/D5_DU_for_Template_2.xlsx
+++ b/i_codebooks/D5_DU_for_Template_2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>medatata_name</t>
   </si>
@@ -131,6 +131,102 @@
   </si>
   <si>
     <t>after pregnancy (before study exit)</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n_1</t>
+  </si>
+  <si>
+    <t>n_2</t>
+  </si>
+  <si>
+    <t>n_3</t>
+  </si>
+  <si>
+    <t>n_4</t>
+  </si>
+  <si>
+    <t>n_5</t>
+  </si>
+  <si>
+    <t>n_6</t>
+  </si>
+  <si>
+    <t>itself</t>
+  </si>
+  <si>
+    <t>column_identifier</t>
+  </si>
+  <si>
+    <t>identifier of the column in the shell table Template 1</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>1 = pregnancies in the study where the woman has MS ever during the study</t>
+  </si>
+  <si>
+    <t>only one unit: the stratum of pregnancies in the study where the woman has MS ever during the study period</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum whose woman was diagnosed more than 12 months prior to pregnancy</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum whose woman was diagnosed 3-12 months prior to pregnancy</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum whose woman was diagnosed 0-3 months prior to pregnancy</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum whose woman was diagnosed  during pregnancy</t>
+  </si>
+  <si>
+    <t>number of pregnancies in the stratum whose woman was diagnosed after pregnancy (before study exit)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>n5</t>
+  </si>
+  <si>
+    <t>n6</t>
+  </si>
+  <si>
+    <t>1 = all pregnacies in D3_DU_PREGNANCY-COHORT_variables having has_MS_ever == 1</t>
+  </si>
+  <si>
+    <t>count pregnacies in D3_DU_PREGNANCY-COHORT_variables having has_MS_ever == 1</t>
+  </si>
+  <si>
+    <t>count pregnacies in D3_DU_PREGNANCY-COHORT_variables having has_MS_ever == 1 and pregnancy_with_MS_detail = "long before pregnancy"</t>
+  </si>
+  <si>
+    <t>count pregnacies in D3_DU_PREGNANCY-COHORT_variables having has_MS_ever == 1 and pregnancy_with_MS_detail = "recently before pregnancy"</t>
+  </si>
+  <si>
+    <t>count pregnacies in D3_DU_PREGNANCY-COHORT_variables having has_MS_ever == 1 and pregnancy_with_MS_detail = right before pregnancy"</t>
+  </si>
+  <si>
+    <t>count pregnacies in D3_DU_PREGNANCY-COHORT_variables having has_MS_ever == 1 and pregnancy_with_MS_detail = "long after pregnancy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count pregnacies in D3_DU_PREGNANCY-COHORT_variables having has_MS_ever == 1 and (pregnancy_with_MS_detail = "during pregnancy" or pregnancy_with_MS_detail = "right after pregnancy") </t>
   </si>
 </sst>
 </file>
@@ -240,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -471,10 +573,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -490,13 +588,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -715,7 +818,7 @@
   <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -754,7 +857,7 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -809,9 +912,12 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -838,7 +944,9 @@
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -864,7 +972,9 @@
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -890,7 +1000,9 @@
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -916,7 +1028,9 @@
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -942,7 +1056,9 @@
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9185,10 +9301,10 @@
   <dimension ref="A1:K996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9224,7 +9340,7 @@
       <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="17" t="s">
@@ -9240,36 +9356,154 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+    <row r="2" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="E2" s="8"/>
+      <c r="G2" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="H2" s="20"/>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="D3" s="13"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="21"/>
+      <c r="A3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="18"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21"/>
+      <c r="G4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
       <c r="D5" s="19"/>
-      <c r="I5" s="18"/>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9278,13 +9512,7 @@
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11315,7 +11543,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12315,10 +12543,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B989"/>
+  <dimension ref="A1:B990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12331,42 +12559,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="25"/>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="B3" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="25"/>
-    </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="B5" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="B6" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B7" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13349,6 +13594,7 @@
     <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
